--- a/docs/INFORMACION CAMPAÑAS.xlsx
+++ b/docs/INFORMACION CAMPAÑAS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTOS _DOCKER\stafflink\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64699809-226A-4CA7-A1C6-84576CC1105E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{20EF79B6-AF66-405A-8B11-CD522C7730C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
   <si>
     <t>CAMPAÑA</t>
   </si>
@@ -138,13 +138,289 @@
   </si>
   <si>
     <t>SAN ISIDRO</t>
+  </si>
+  <si>
+    <t>CAMPAÑA2</t>
+  </si>
+  <si>
+    <t>LISTA DE DATOS 2025</t>
+  </si>
+  <si>
+    <t>TIPO DE DOCUMENTO</t>
+  </si>
+  <si>
+    <t>Nro de DNI o C.E.</t>
+  </si>
+  <si>
+    <t>APELLIDO PATERNO</t>
+  </si>
+  <si>
+    <t>APELLIDO MATERNO</t>
+  </si>
+  <si>
+    <t>NOMBRES COMPLETOS</t>
+  </si>
+  <si>
+    <t>NÚMERO DE CELULAR / MÓVIL</t>
+  </si>
+  <si>
+    <t>NÚMERO DE CELULAR DE REFERENCIA</t>
+  </si>
+  <si>
+    <t>CORREO ELECTRONICO</t>
+  </si>
+  <si>
+    <t>GÉNERO O SEXO DEL POSTULANTE</t>
+  </si>
+  <si>
+    <t>FECHA DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>EDAD</t>
+  </si>
+  <si>
+    <t>ESTADO CIVIL</t>
+  </si>
+  <si>
+    <t>N° de HIJOS</t>
+  </si>
+  <si>
+    <t>NIVEL ACADÉMICO</t>
+  </si>
+  <si>
+    <t>DATOS PERSONALES</t>
+  </si>
+  <si>
+    <t>MENCIONAR CARREA</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>NACIONALIDAD</t>
+  </si>
+  <si>
+    <t>LUGAR DE RESIDENCIA ACTUAL</t>
+  </si>
+  <si>
+    <t>DISTRITO</t>
+  </si>
+  <si>
+    <t>DISTRITO DE RESIDENCIA</t>
+  </si>
+  <si>
+    <t>DOMICILIO ACTUAL</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DE DOMICILIO ACTUAL</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA LABORAL</t>
+  </si>
+  <si>
+    <t>¿CUENTAS CON EXPERIENCIA LABORAL EN CALL CENTER?</t>
+  </si>
+  <si>
+    <t>SI RESPONDISTE SI</t>
+  </si>
+  <si>
+    <t>¿QUE TIPO DE EXPERIENCIA TIENES? ( ORIENTADO A LA CAMPAÑA QUE POSTULAS)</t>
+  </si>
+  <si>
+    <t>TIEMPO DE EXPERIENCIA</t>
+  </si>
+  <si>
+    <t>SI RESPONDISTE NO</t>
+  </si>
+  <si>
+    <t>DETALLANOS OTRA EXPERIENCIA LABORAL</t>
+  </si>
+  <si>
+    <t>COMO TE ENTERASTE DE LA OFERTA LABORAL</t>
+  </si>
+  <si>
+    <t>¿CÓMO TE ENTERASTE DE LA OFERTA LABORAL?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SECCIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRIBUTOS </t>
+  </si>
+  <si>
+    <t>OPCION 1</t>
+  </si>
+  <si>
+    <t>OPCION 2</t>
+  </si>
+  <si>
+    <t>OPCION 3</t>
+  </si>
+  <si>
+    <t>OPCION 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNI </t>
+  </si>
+  <si>
+    <t>C.E.</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>SOLTERO</t>
+  </si>
+  <si>
+    <t>CASADO</t>
+  </si>
+  <si>
+    <t>DIVORCIADO</t>
+  </si>
+  <si>
+    <t>VIUDO</t>
+  </si>
+  <si>
+    <t>CONVIVIENTE</t>
+  </si>
+  <si>
+    <t>OPCION 5</t>
+  </si>
+  <si>
+    <t>SECUNDARIA COMPLETA</t>
+  </si>
+  <si>
+    <t>TÉCNICO CULMINADO</t>
+  </si>
+  <si>
+    <t>TÉCNICO EN CURSO</t>
+  </si>
+  <si>
+    <t>TÉCNICO TRUNCO</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO CULMINADO</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO EN CURSO</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO TRUNCO</t>
+  </si>
+  <si>
+    <t>TITULADO</t>
+  </si>
+  <si>
+    <t>OPCION 6</t>
+  </si>
+  <si>
+    <t>OPCION 7</t>
+  </si>
+  <si>
+    <t>OPCION 8</t>
+  </si>
+  <si>
+    <t>PERUANA</t>
+  </si>
+  <si>
+    <t>VENEZOLANA</t>
+  </si>
+  <si>
+    <t>CUBANA</t>
+  </si>
+  <si>
+    <t>ECUATORIANA</t>
+  </si>
+  <si>
+    <t>COLOMBIANA</t>
+  </si>
+  <si>
+    <t>LIMA METROPOLITANA</t>
+  </si>
+  <si>
+    <t>CALLAO</t>
+  </si>
+  <si>
+    <t>PROVINCIA (DETALLAR EN LA SIGUIENTE SECCION EN "OTROS")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPCIONES DE DISTRITO </t>
+  </si>
+  <si>
+    <t>Otro:</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA ATC CALL CENTER</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA VENTAS CALL CENTER</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA  EN RETENCIONES O FIDELIZACION</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA EN CONSUMO MASIVO</t>
+  </si>
+  <si>
+    <t>1 - 3 MESES</t>
+  </si>
+  <si>
+    <t>3 - 6 MESES</t>
+  </si>
+  <si>
+    <t>6 - 9 MESES</t>
+  </si>
+  <si>
+    <t>12 MESES A MAS</t>
+  </si>
+  <si>
+    <t>SIN EXPERIENCIA LABORAL</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA EN ATENCION AL CLIENTE PRESENCIAL</t>
+  </si>
+  <si>
+    <t>EXPERIENCIA EN VENTAS PRESENCIAL</t>
+  </si>
+  <si>
+    <t>0 MESES</t>
+  </si>
+  <si>
+    <t>9 - 12 MESES</t>
+  </si>
+  <si>
+    <t>COMPUTRABAJO</t>
+  </si>
+  <si>
+    <t>BUMERAN</t>
+  </si>
+  <si>
+    <t>FACEBOOK</t>
+  </si>
+  <si>
+    <t>TIK TOK</t>
+  </si>
+  <si>
+    <t>INSTAGRAM</t>
+  </si>
+  <si>
+    <t>REFERIDO (POR UN COLABORADOR DE GEA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +448,34 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Docs-Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Docs-Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +488,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -210,34 +560,402 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -248,6 +966,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B3:E28" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="B3:E28"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="CAMPAÑA" dataDxfId="4"/>
+    <tableColumn id="2" name="AREA" dataDxfId="3"/>
+    <tableColumn id="3" name="CAMPAÑA2" dataDxfId="2"/>
+    <tableColumn id="4" name="SEDE" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,407 +1297,1014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F095F0-98BF-4271-B671-1757C27777B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="41" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:5" ht="15">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:5" ht="15">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:5" ht="15">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="2:5" ht="15">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="2:5" ht="15">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:5" ht="15">
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="2:5" ht="15">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="2:5" ht="15">
+      <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="2:5" ht="15">
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="2:5" ht="15">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="2:5" ht="15">
+      <c r="B13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:5" ht="15">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="2:5" ht="15">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="2:5" ht="15">
+      <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:5" ht="15">
+      <c r="B17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:5" ht="15">
+      <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:5" ht="15">
+      <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:5" ht="15">
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:5" ht="15">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:5" ht="15">
+      <c r="B22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:5" ht="15">
+      <c r="B23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:5" ht="15">
+      <c r="B24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="2:5" ht="15">
+      <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="2:5" ht="15">
+      <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="2:5" ht="15">
+      <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="2:5" ht="15">
+      <c r="B28" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D45" s="5"/>
+    <row r="39" spans="4:4">
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.375" style="13"/>
+    <col min="2" max="2" width="74.25" style="13" customWidth="1"/>
+    <col min="3" max="16384" width="28.375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" s="26" customFormat="1">
+      <c r="A4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="22"/>
+      <c r="B6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="22"/>
+      <c r="B7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="22"/>
+      <c r="B8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="22"/>
+      <c r="B9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="22"/>
+      <c r="B10" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="22"/>
+      <c r="B11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="22"/>
+      <c r="B12" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="22"/>
+      <c r="B13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="22"/>
+      <c r="B14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="22"/>
+      <c r="B15" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="22"/>
+      <c r="B16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="22"/>
+      <c r="B17" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" s="22"/>
+      <c r="B18" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75">
+      <c r="A19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75">
+      <c r="A20" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="1:10" ht="42.75">
+      <c r="A21" s="23"/>
+      <c r="B21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75">
+      <c r="A22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="A23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75">
+      <c r="A24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" ht="42.75">
+      <c r="A25" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75">
+      <c r="A26" s="23"/>
+      <c r="B26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="1:10" ht="28.5">
+      <c r="A27" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75">
+      <c r="A28" s="24"/>
+      <c r="B28" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:10" ht="30">
+      <c r="A29" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="1:10" ht="15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A5:A18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/INFORMACION CAMPAÑAS.xlsx
+++ b/docs/INFORMACION CAMPAÑAS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -242,9 +242,6 @@
     <t>¿CÓMO TE ENTERASTE DE LA OFERTA LABORAL?</t>
   </si>
   <si>
-    <t xml:space="preserve">SECCIONES </t>
-  </si>
-  <si>
     <t xml:space="preserve">ATRIBUTOS </t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>REFERIDO (POR UN COLABORADOR DE GEA)</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1300,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="28.375" defaultRowHeight="14.25"/>
@@ -1734,34 +1734,34 @@
     </row>
     <row r="4" spans="1:10" s="26" customFormat="1">
       <c r="A4" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>73</v>
-      </c>
       <c r="G4" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H4" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="J4" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75">
@@ -1772,10 +1772,10 @@
         <v>36</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>74</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>75</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -1888,10 +1888,10 @@
         <v>44</v>
       </c>
       <c r="C13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>77</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -1934,19 +1934,19 @@
         <v>47</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="F16" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="G16" s="27" t="s">
         <v>81</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>82</v>
       </c>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
@@ -1972,28 +1972,28 @@
         <v>49</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="F18" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="G18" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="H18" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="I18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>90</v>
-      </c>
-      <c r="J18" s="21" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75">
@@ -2020,19 +2020,19 @@
         <v>53</v>
       </c>
       <c r="C20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="F20" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="G20" s="27" t="s">
         <v>98</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>99</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -2044,13 +2044,13 @@
         <v>54</v>
       </c>
       <c r="C21" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="E21" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>102</v>
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -2066,10 +2066,10 @@
         <v>56</v>
       </c>
       <c r="C22" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
@@ -2102,10 +2102,10 @@
         <v>60</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
@@ -2122,16 +2122,16 @@
         <v>62</v>
       </c>
       <c r="C25" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="E25" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="F25" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="21"/>
@@ -2144,16 +2144,16 @@
         <v>63</v>
       </c>
       <c r="C26" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="E26" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="F26" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="21"/>
@@ -2168,13 +2168,13 @@
         <v>65</v>
       </c>
       <c r="C27" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="E27" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
@@ -2188,22 +2188,22 @@
         <v>63</v>
       </c>
       <c r="C28" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="27" t="s">
+      <c r="H28" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
@@ -2216,22 +2216,22 @@
         <v>67</v>
       </c>
       <c r="C29" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="E29" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="G29" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="H29" s="21" t="s">
         <v>124</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>125</v>
       </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
